--- a/material.xlsx
+++ b/material.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jose\Documents\GTI\Cuarto\1semestre\Practicas\videocoche\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C54A0E-1217-44A4-82A3-531B2637BC17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{787EB5EC-E5AA-48F5-946B-CD49A1950765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -548,7 +548,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -556,6 +556,7 @@
     <col min="1" max="1" width="45.6640625" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" customWidth="1"/>
     <col min="3" max="3" width="82.44140625" customWidth="1"/>
+    <col min="5" max="7" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
